--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEABF39-757C-4BA9-A488-4396B047D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5BC35-3806-4763-B115-3ABBC9A21AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,13 +145,13 @@
     <t>Key</t>
   </si>
   <si>
-    <t>media/coin.wav</t>
-  </si>
-  <si>
-    <t>media/buzz.wav</t>
-  </si>
-  <si>
-    <t>media/beep.wav</t>
+    <t>media/beep.mp3</t>
+  </si>
+  <si>
+    <t>media/buzz.mp3</t>
+  </si>
+  <si>
+    <t>media/coin.mp3</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,13 +553,13 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5BC35-3806-4763-B115-3ABBC9A21AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59ED33-872B-4F18-AFAB-61D3F3B9199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,138 +20,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>i</t>
   </si>
   <si>
+    <t>media/djnb.png</t>
+  </si>
+  <si>
+    <t>media/dnnb.png</t>
+  </si>
+  <si>
+    <t>media/dinb.png</t>
+  </si>
+  <si>
+    <t>media/djnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dnnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dinb_r.png</t>
+  </si>
+  <si>
+    <t>media/djnb_g.png</t>
+  </si>
+  <si>
+    <t>media/dnnb_g.png</t>
+  </si>
+  <si>
+    <t>media/dinb_g.png</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>media/hand.png</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>media/dgnb.png</t>
+  </si>
+  <si>
+    <t>media/dgnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dgnb_g.png</t>
+  </si>
+  <si>
+    <t>X_pos</t>
+  </si>
+  <si>
+    <t>Y_pos</t>
+  </si>
+  <si>
+    <t>Sound_P</t>
+  </si>
+  <si>
+    <t>Sound_N</t>
+  </si>
+  <si>
+    <t>Beep</t>
+  </si>
+  <si>
+    <t>KeyNum</t>
+  </si>
+  <si>
+    <t>Symb</t>
+  </si>
+  <si>
+    <t>Symb_R</t>
+  </si>
+  <si>
+    <t>Symb_G</t>
+  </si>
+  <si>
+    <t>StimNum</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>media/beep.mp3</t>
+  </si>
+  <si>
+    <t>media/buzz.mp3</t>
+  </si>
+  <si>
+    <t>media/coin.mp3</t>
+  </si>
+  <si>
     <t>media/ddnb.png</t>
   </si>
   <si>
-    <t>media/djnb.png</t>
-  </si>
-  <si>
-    <t>media/dnnb.png</t>
-  </si>
-  <si>
-    <t>media/dinb.png</t>
-  </si>
-  <si>
-    <t>media/djnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dnnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dinb_r.png</t>
-  </si>
-  <si>
     <t>media/ddnb_r.png</t>
   </si>
   <si>
-    <t>media/djnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dnnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dinb_g.png</t>
-  </si>
-  <si>
     <t>media/ddnb_g.png</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>media/hand.png</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
     <t>media/dfnb.png</t>
   </si>
   <si>
-    <t>media/dgnb.png</t>
+    <t>media/dfnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dfnb_g.png</t>
   </si>
   <si>
     <t>media/dcnb.png</t>
   </si>
   <si>
+    <t>media/dcnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dcnb_g.png</t>
+  </si>
+  <si>
     <t>media/dmnb.png</t>
   </si>
   <si>
-    <t>media/dfnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dgnb_r.png</t>
-  </si>
-  <si>
-    <t>media/dcnb_r.png</t>
-  </si>
-  <si>
     <t>media/dmnb_r.png</t>
   </si>
   <si>
-    <t>media/dfnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dgnb_g.png</t>
-  </si>
-  <si>
-    <t>media/dcnb_g.png</t>
-  </si>
-  <si>
     <t>media/dmnb_g.png</t>
-  </si>
-  <si>
-    <t>X_pos</t>
-  </si>
-  <si>
-    <t>Y_pos</t>
-  </si>
-  <si>
-    <t>Sound_P</t>
-  </si>
-  <si>
-    <t>Sound_N</t>
-  </si>
-  <si>
-    <t>Beep</t>
-  </si>
-  <si>
-    <t>KeyNum</t>
-  </si>
-  <si>
-    <t>Symb</t>
-  </si>
-  <si>
-    <t>Symb_R</t>
-  </si>
-  <si>
-    <t>Symb_G</t>
-  </si>
-  <si>
-    <t>StimNum</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>media/beep.mp3</t>
-  </si>
-  <si>
-    <t>media/buzz.mp3</t>
-  </si>
-  <si>
-    <t>media/coin.mp3</t>
   </si>
 </sst>
 </file>
@@ -469,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
@@ -488,40 +488,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>-3.7999999999999999E-2</v>
@@ -550,16 +550,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -567,19 +567,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>1.4E-2</v>
@@ -599,13 +599,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>5.7000000000000002E-2</v>
@@ -619,19 +619,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -645,19 +645,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>-3.7999999999999999E-2</v>
@@ -671,19 +671,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1.4E-2</v>
@@ -703,13 +703,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>5.7000000000000002E-2</v>
@@ -723,25 +723,105 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59ED33-872B-4F18-AFAB-61D3F3B9199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABBB883-E9C6-4583-BD9E-5AC07F5BEF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,6 +763,12 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -783,6 +789,12 @@
       <c r="F11">
         <v>2</v>
       </c>
+      <c r="G11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -803,6 +815,12 @@
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -822,6 +840,12 @@
       </c>
       <c r="F13">
         <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
